--- a/src/shared/consts/translations.xlsx
+++ b/src/shared/consts/translations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1652">
   <si>
     <t xml:space="preserve">auth.agree_with</t>
   </si>
@@ -3130,7 +3130,7 @@
     <t xml:space="preserve">You have reached Intimacy level: </t>
   </si>
   <si>
-    <t xml:space="preserve">Você alcançou o nível de Intimidade: </t>
+    <t xml:space="preserve">Você alcançou o nível de Intimidade:</t>
   </si>
   <si>
     <t xml:space="preserve">questions.congrats_basic_description_2</t>
@@ -3172,7 +3172,7 @@
     <t xml:space="preserve">Congrats, you have reached Intimacy Level: </t>
   </si>
   <si>
-    <t xml:space="preserve">Parabéns, você alcançou o Nível de Intimidade: </t>
+    <t xml:space="preserve">Parabéns, você alcançou o Nível de Intimidade:</t>
   </si>
   <si>
     <t xml:space="preserve">questions.congrats_intimate_description_2</t>
@@ -4069,7 +4069,7 @@
     <t xml:space="preserve">common.put_iphone_not_distracted</t>
   </si>
   <si>
-    <t xml:space="preserve">Ps:  Put your phone in flight mode so you are not distracted.</t>
+    <t xml:space="preserve">Ps: Put your phone in flight mode so you are not distracted.</t>
   </si>
   <si>
     <t xml:space="preserve">common.note</t>
@@ -4207,7 +4207,7 @@
     <t xml:space="preserve">common.venture_beyond_the_journey</t>
   </si>
   <si>
-    <t xml:space="preserve">Venture beyond "The Journey" whenever you wish, choosing content that aligns with your relationship's needs and interests.</t>
+    <t xml:space="preserve">Venture beyond The Journey whenever you wish, choosing content that aligns with your relationship's needs and interests.</t>
   </si>
   <si>
     <t xml:space="preserve">common.utilize_the_challenges</t>
@@ -4480,9 +4480,6 @@
     <t xml:space="preserve">Exploring individual personalities and life backgrounds</t>
   </si>
   <si>
-    <t xml:space="preserve"> beginning to understand each other's basic needs and preferences.</t>
-  </si>
-  <si>
     <t xml:space="preserve">common.but_the_truth_is</t>
   </si>
   <si>
@@ -4607,6 +4604,378 @@
   </si>
   <si>
     <t xml:space="preserve">Offer Empathy: Respond to each other's answers with an open heart, free from judgment. This is your space to offer support, understanding, and empathy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common.ok_i_got_this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok. I’ve got this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions1_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app is designed to enhance your relationship skills through a structured, engaging, and interactive journey that spans four difficulty levels: Starter, Basic, Deep, and Intimate. Just like mastering any skill, you progress to the next level only after acquiring the skills and techniques of the preceding one, ensuring a thorough understanding and application of each aspect of the relationship-building process. These intimacy levels in LoveWorkz are specifically crafted to build upon each other, increasing in complexity and depth with each stage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions1_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each level not only brings you closer together but also intensifies the demands on your communication skills, understanding, and ability to grow as a couple. This tiered approach allows you to gradually approach more complex and intimate aspects of your relationship, creating a solid foundation for lasting personal and mutual growth, thereby enriching your relationship at every stage with new insights and stronger bonds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions2_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But it’s not just about asking questions, it’s about fostering real change. Each session concludes with one challenge—think of it as homework or a tool—designed to translate insights into action. These challenges, exercises, activities, self-reflection exercises, games and routines are handpicked and sequenced to ensure that as you progress, you’re building on a solid foundation (a toolkit) of skills and understanding. This toolkit grows with each completed challenge, equipping you for future challenges and deepening your bond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions3_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will find some of the questions and challenges easy and others more difficult. But that's why you're here—to learn and challenge yourself to become better together. The questions are aimed at facilitating a conversation to get to know each other better and introduce topics that you might not talk about normally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions3_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The challenges are aimed at giving you an opportunity to go outside your comfort zone, deal with difficult issues, come up with solutions and learn key relationship skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions3_text_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite the depth of the topics, we meticulously crafted the sessions with a focus to maintain a positive emotional state, blending serious discussions with lighter, fun questions, Wild Cards, Fun-Fact Cards &amp; one card with sexual related questions. (Hot Stuff -Card). This fosters a healthy, hopeful atmosphere, allowing for growth without overwhelming stress or tension, and ensuring the journey remains balanced and enjoyable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions4_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond 'The Journey,' LoveWorkz offers the freedom to explore sessions, questions, and challenges independently. This mode enables you to focus on specific areas of interest at your own pace, perfect for supplementing the structured journey or diving deeper into particular topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.descriptions5_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoveWorkz is designed to be more than just an app, it's a partner in your journey toward a deeper connection and understanding. Play it as a standalone tool or even more powerful along a couple therapy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.title_challenges:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Your Toolkit with Challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how_to_use.title_maintaining:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintaining a Positive Emotional Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions1_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By embracing LoveWorkz, you're already ahead of the curve, In a world where the odds seem stacked against lasting relationships — with divorce rates hovering around 60%*, and overall breakup rates even more common — joining us is your first step towards changing those odds in your favor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions1_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With LoveWorkz, you’re not just dodging statistics, you’re increasing significantly your chances of forging a connection that lasts a lifetime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions1_text_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets be honest relationship are not easy, and sometimes even really difficult, thats because unless you had the perfect role model with your parents, we weren’t really taught how to have successful fulfilled happy relationships. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions1_text_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore It's even more tragic, that we have no problems to hours in e.g. learning how to swim or ride a bike, but we often neglect such deliberate efforts when it comes to learning how relationships works, expecting them to flourish somehow automatically!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Much like athletes rely on coaches for peak performance, relationships too can benefit immensely from expert guidance. LoveWorkz is here to equip you with the skills and insights necessary for a thriving partnership, steering clear of common pitfalls like communication breakdowns or unmet expectations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships are sometimes challenging, we all been in these situations, where we felt overwhelmed or just didn’t know what to do or to say, where we expect our partners to read our minds, intuit our needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The moments when misunderstanding sprouts not from what's said, but from all that's left unsaid, expecting our partner to somehow decode our silence. Or those times when the stress of daily routines leaves us feeling disconnected, each lost in our own world, forgetting to check in on each other's needs and dreams. It's in these everyday scenes that the essence of a strong, healthy relationship is tested and can either weaken or grow stronger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many couples who find themselves at a crossroads, are not there because of a lack of love, but from not having the right tools to build on that love. It’s common to fall into the trap of believing our partners should just know — know when we need a hug instead of advice, know when to give us space or pull us close. And it’s here, in the gap between expectation and reality, that frustration often grows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoveWorkz steps into this gap, offering a bridge built on understanding and skill-building. Through our platform, you will deepen your friendship woth your loved ones, learn how to articulate needs without criticism, listen deeply without defensiveness, and create a shared vision for your future. It's about transforming the unspoken and the misunderstood into pillars of your relationship’s strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ve meticulously compiled over 2000 questions, challenges, exercises, games, routines and activities, from various sources, - therapy sessions, expert interviews, literature, couple surveys etc. – to design numerous sets of therapeutic sessions and to derive more than 35 key topics that hold particular significance for couples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Loveworkz is more than just an app with random assortment of tips, methods, exercises and questions, it’s a therapeutic tool which offers an innovative approach, providing you with expert-backed guidance at your fingertips and which fits seamlessly into our fast-paced lives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What truly sets us apart is the therapeutic roadmap we've crafted for you. A tailored step-by-step approach, firmly grounded in evidence-based practices and developed by a team of dedicated professionals, including cognitive behavior psychotherapists, Neuro-Linguistic Programming &amp; (NLP) communication experts and couple therapists, to ensure your journey is both enriching and effective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That means our approach is deliberate and thoughtful, with every session, challenge, exercise, activity, and routine handpicked and sequenced to resemble a therapy journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each step is meticulously designed to prepare you for the next, ensuring a coherent and purposeful progression through your relationship growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the time you reach discussions on more complex or sensitive issues, you’ll have the tools and confidence to navigate them effectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We understood: That the most profound connections are built on honest, heartfelt conversations. We know: Discussing desires or needs, addressing the elephant in the room, and sharing your deepest emotions can be challenging topics to discuss,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions2_text_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As they come to the surface in a guided/measured/playful fashion, we aim to remove this burden with the help of our specialists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions3_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoveWorkz acts as your personal coach, guiding you with a clear structure and the assurance that the journey you’re embarking on is one shaped by expertise, grounded in evidence-based practices, and a deep understanding of what makes relationships last.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions3_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This app is designed to empower you with the tools and guidance needed to navigate important discussions with finesse. Whether you're opening up about your needs, tackling concerns head-on, or exploring your emotions, LoveWorkz is your trusted partner in achieving deeper understanding and stronger connections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions3_text_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a therapeutic tool that can be used as a standalone guide to your relationship and would be even more effective as a complement to couples therapy sessions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions3_text_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We believe that growing together should be fun. So don’t worry, it’s not just about constantly addressing the heavy stuff. We will provide you a healthy mix to ensure fun and lightness, to embrace your journey as a couple and enjoying your time along the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_page.how_to_use_descriptions3_text_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your relationship is a journey of two unique individuals coming together, and it’s the collective effort, energy, and love you invest that makes it truly remarkable. We’ll provide the tools, but it’s up to you to bring your unique selves to the table. Together with LoveWorkz we will make your love work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the literature Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature_title_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you find here is a standout gem, highly recommended by  therapists and handpicked by our team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature_title_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientifically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> backed, filled with evidence-based insights, tips and exercises, these books will help you improve communication, increase mutual understanding, deepen emotional bonds, and navigate through your relationship challenges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature_title_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.literature_text_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is categorized and comes with a short explanation, assisting you in discovering the perfect resource to enrich your partnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.challenges_title_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.challenges_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.browsing_topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browsing Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.browsing_topics_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't feel like doing a full session right now? No problem! You can browse and explore individual questions based on specific topics of interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.browsing_topics_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just keep in mind that to track your progress and get the most out of the app, you'll want to return to the session area or start a new session from the homepage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.session_library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_block.session_library_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are currently in the Session Library. It gives you a perfect overview of the sessions in each level. The levels will unlock as you progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_navigator.tab_name_books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_navigator.tab_name_sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_navigator.tab_name_topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_navigator.tab_name_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_navigator.tab_name_challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_1_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoveWorkz is crafted with the special purpose of bringing you and your partner closer, turning your relationship journey into a meaningful ritual. Before diving into the steps, remember, this experience is all about dedicating quality time to each other. So, put your phone on flight mode to avoid interruptions, fire up the app, and place it somewhere cozy between you—be it on the sofa or a table. Pour yourselves a glass of wine, create a pleasant atmosphere, and ensure you're both in a great mood and ready to embark on this adventure together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_2_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick a weekly time slot that suits both of you perfectly. Treat this time as sacred, a moment you both prioritize and eagerly anticipate every week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_3_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a spot where both of you feel comfortable and can be free from distractions. The right mood is a cornerstone for a session filled with meaningful exchanges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_4_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being physically together brings a special kind of magic to your experiences, amplifying the joy and depth of your connection. It's in these moments that you'll forge the deepest connections and create memories that stick with you, enriching your relationship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_4_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the syncing feature, both of your accounts share one progress stream, keeping you united in your journey, whether close or apart. It allows you to access challenges, gather information, or to prepare for or reflect on your sessions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_5_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the insights gleaned from each question to delve deeper into your relationship. Discuss any arising thoughts or emotions, fostering an environment of openness and trust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_6_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The speed at which you progress through this app really depends on your personal motivation and goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_6_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the starter levels are lighter and easier, you may find that you complete those quicker: doing it once or twice a week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_6_text_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, as you move to Basic and Deep, it's best to do this only once a week to give yourselves time to reflect on the conversation and solidify any key learnings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_7_text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app isn't about finding out who is right or who is wrong—it's about discovering more about each other, listening to the other's perspective and strengthening the connection. It's natural that talking about deep or personal issues can bring up feelings of stress, vulnerability or sadness. Therefore, it's important to keep an open mind and support each other with kindness, encouragement and respect throughout this process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_rules.descriptions_7_text_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By integrating LoveWorkz into your weekly routine, you're not just spending time together, you're investing in the growth and depth of your relationship. Enjoy this journey of discovery and intimacy, and each session will bring you closer to each other.</t>
   </si>
 </sst>
 </file>
@@ -4816,22 +5185,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -5027,7 +5396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -5265,7 +5634,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>123</v>
       </c>
@@ -5503,7 +5872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="56.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>191</v>
       </c>
@@ -5587,7 +5956,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="56.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>211</v>
       </c>
@@ -5671,7 +6040,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>233</v>
       </c>
@@ -5797,7 +6166,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>268</v>
       </c>
@@ -5825,7 +6194,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>276</v>
       </c>
@@ -6063,7 +6432,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>340</v>
       </c>
@@ -6231,7 +6600,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>388</v>
       </c>
@@ -6259,7 +6628,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>396</v>
       </c>
@@ -6273,7 +6642,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>400</v>
       </c>
@@ -6357,7 +6726,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>423</v>
       </c>
@@ -6371,7 +6740,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>427</v>
       </c>
@@ -6539,7 +6908,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="45.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>475</v>
       </c>
@@ -6553,7 +6922,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="84.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>479</v>
       </c>
@@ -6567,7 +6936,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>483</v>
       </c>
@@ -6595,7 +6964,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>489</v>
       </c>
@@ -6609,7 +6978,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>493</v>
       </c>
@@ -6721,7 +7090,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>523</v>
       </c>
@@ -7127,7 +7496,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>635</v>
       </c>
@@ -7281,7 +7650,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>675</v>
       </c>
@@ -7687,7 +8056,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>787</v>
       </c>
@@ -7743,7 +8112,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>803</v>
       </c>
@@ -7771,7 +8140,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>809</v>
       </c>
@@ -7897,7 +8266,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
         <v>842</v>
       </c>
@@ -7911,7 +8280,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="56.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
         <v>846</v>
       </c>
@@ -7925,7 +8294,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>850</v>
       </c>
@@ -7939,7 +8308,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
         <v>854</v>
       </c>
@@ -7953,7 +8322,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>858</v>
       </c>
@@ -7981,7 +8350,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>866</v>
       </c>
@@ -7995,7 +8364,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
         <v>870</v>
       </c>
@@ -8009,7 +8378,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>874</v>
       </c>
@@ -8023,7 +8392,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
         <v>878</v>
       </c>
@@ -8051,7 +8420,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>886</v>
       </c>
@@ -8079,7 +8448,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>894</v>
       </c>
@@ -8611,7 +8980,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
         <v>1037</v>
       </c>
@@ -8639,7 +9008,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
         <v>1044</v>
       </c>
@@ -8667,7 +9036,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
         <v>1051</v>
       </c>
@@ -8751,7 +9120,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
         <v>1075</v>
       </c>
@@ -9549,7 +9918,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
         <v>1292</v>
       </c>
@@ -9619,7 +9988,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
         <v>1308</v>
       </c>
@@ -9789,7 +10158,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="56.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
         <v>1352</v>
       </c>
@@ -9829,7 +10198,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="45.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>1362</v>
       </c>
@@ -9877,7 +10246,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>1374</v>
       </c>
@@ -9885,7 +10254,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
         <v>1376</v>
       </c>
@@ -9949,7 +10318,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
         <v>1392</v>
       </c>
@@ -9957,7 +10326,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
         <v>1394</v>
       </c>
@@ -9965,7 +10334,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
         <v>1396</v>
       </c>
@@ -9973,7 +10342,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>1398</v>
       </c>
@@ -10005,7 +10374,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
         <v>1406</v>
       </c>
@@ -10117,7 +10486,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
         <v>1434</v>
       </c>
@@ -10125,7 +10494,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="45.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
         <v>1436</v>
       </c>
@@ -10133,7 +10502,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
         <v>1438</v>
       </c>
@@ -10141,7 +10510,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="45.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
         <v>1440</v>
       </c>
@@ -10157,7 +10526,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
         <v>1444</v>
       </c>
@@ -10165,7 +10534,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
         <v>1446</v>
       </c>
@@ -10189,7 +10558,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
         <v>1452</v>
       </c>
@@ -10205,7 +10574,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
         <v>1456</v>
       </c>
@@ -10221,7 +10590,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="45.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
         <v>1460</v>
       </c>
@@ -10237,7 +10606,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
         <v>1464</v>
       </c>
@@ -10269,7 +10638,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
         <v>1472</v>
       </c>
@@ -10309,7 +10678,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
         <v>1482</v>
       </c>
@@ -10324,176 +10693,693 @@
       <c r="C425" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="D425" s="2" t="s">
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="426" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="2" t="s">
+      <c r="C426" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="C428" s="2" t="s">
+    </row>
+    <row r="429" customFormat="false" ht="120.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="429" customFormat="false" ht="155.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="s">
+      <c r="C429" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="C432" s="2" t="s">
+    </row>
+    <row r="433" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="433" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="2" t="s">
+      <c r="C433" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="C433" s="2" t="s">
+    </row>
+    <row r="434" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="434" customFormat="false" ht="56.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2" t="s">
+      <c r="C434" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="C434" s="2" t="s">
+    </row>
+    <row r="435" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="435" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="2" t="s">
+      <c r="C435" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>1509</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>1517</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="C442" s="2" t="s">
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="2" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="443" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="2" t="s">
+      <c r="C443" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="C443" s="2" t="s">
+    </row>
+    <row r="444" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="2" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="444" customFormat="false" ht="45.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="2" t="s">
+      <c r="C444" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="C444" s="2" t="s">
+    </row>
+    <row r="445" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="2" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="445" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="2" t="s">
+      <c r="C445" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="C445" s="2" t="s">
+    </row>
+    <row r="446" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="2" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="446" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="2" t="s">
+      <c r="C446" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="C446" s="2" t="s">
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="2" t="s">
         <v>1528</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="96.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="96.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="84.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="96.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1651</v>
       </c>
     </row>
   </sheetData>

--- a/src/shared/consts/translations.xlsx
+++ b/src/shared/consts/translations.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1982">
   <si>
     <t>about_page.how_to_use_descriptions1_text_1</t>
   </si>
@@ -5907,6 +5907,63 @@
   </si>
   <si>
     <t>Tirar foto</t>
+  </si>
+  <si>
+    <t>common.next_step</t>
+  </si>
+  <si>
+    <t>Nächster Schritt</t>
+  </si>
+  <si>
+    <t>Next Step</t>
+  </si>
+  <si>
+    <t>Próxima Etapa</t>
+  </si>
+  <si>
+    <t>common.level</t>
+  </si>
+  <si>
+    <t>Ebene</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>common.welcome_to</t>
+  </si>
+  <si>
+    <t>Willkommen zu</t>
+  </si>
+  <si>
+    <t>Welcome to</t>
+  </si>
+  <si>
+    <t>Bem-vindo ao</t>
+  </si>
+  <si>
+    <t>common.choose_of_the_following</t>
+  </si>
+  <si>
+    <t>Wähle eines der Folgenden</t>
+  </si>
+  <si>
+    <t>Choose one of the following</t>
+  </si>
+  <si>
+    <t>Escolha um dos seguintes</t>
+  </si>
+  <si>
+    <t>common.choose_of_the_following_part_2</t>
+  </si>
+  <si>
+    <t>genießen Sie es gemeinsam und denken Sie daran, es als abgeschlossen zu markieren, wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>enjoy it together and remember to mark it as completed once you're finished.</t>
+  </si>
+  <si>
+    <t>aproveitem juntos e lembrem-se de marcar como concluído quando terminarem.</t>
   </si>
 </sst>
 </file>
@@ -5976,7 +6033,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6009,6 +6066,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14060,11 +14120,76 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1">
+      <c r="B512" s="11" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C512" s="11" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D512" s="11" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E512" s="11" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="513" ht="12.75" customHeight="1">
+      <c r="B513" s="11" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C513" s="11" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D513" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E513" s="11" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="514" ht="12.75" customHeight="1">
+      <c r="B514" s="11" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C514" s="11" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D514" s="11" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E514" s="11" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="515" ht="12.75" customHeight="1">
+      <c r="B515" s="11" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C515" s="11" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D515" s="11" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E515" s="11" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="516" ht="12.75" customHeight="1">
+      <c r="B516" s="11" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C516" s="11" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D516" s="11" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E516" s="11" t="s">
+        <v>1981</v>
+      </c>
+    </row>
     <row r="517" ht="12.75" customHeight="1"/>
     <row r="518" ht="12.75" customHeight="1"/>
     <row r="519" ht="12.75" customHeight="1"/>

--- a/src/shared/consts/translations.xlsx
+++ b/src/shared/consts/translations.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="translations" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Level &amp; Quadrant" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">translations!$A$1:$AA$1000</definedName>
@@ -11,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="h05cf23/TbpT/XcPuXDiYdaPHtiZka5Fqpsnp4f0S84="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="glBcrbSNzE9pqmFi6ACsSEds7WcraxrAqRa3t2dvkbA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="1984">
   <si>
     <t>about_page.how_to_use_descriptions1_text_1</t>
   </si>
@@ -185,7 +186,7 @@
     <t>We’ve meticulously compiled over 2000 questions, challenges, exercises, games, routines and activities, from various sources, - therapy sessions, expert interviews, literature, couple surveys etc. – to design numerous sets of therapeutic sessions and to derive more than 35 key topics that hold particular significance for couples.</t>
   </si>
   <si>
-    <t>Reunimos mais de 2.000 perguntas, Challenges, exercícios, jogos, rotinas e atividades de várias fontes - sessões de terapia, entrevistas com especialistas, literatura, pesquisas com casais, etc. - para elaborar várias sessões de terapia. - Para elaborar várias sessões de terapia, você pode encontrar mais de 35 temas-chave que são de particular importância para os casais.</t>
+    <t>Reunimos mais de 2.000 perguntas, desafios, exercícios, jogos, rotinas e atividades de várias fontes - sessões de terapia, entrevistas com especialistas, literatura, pesquisas com casais, etc. - para elaborar várias sessões de terapia. - Para elaborar várias sessões de terapia, você pode encontrar mais de 35 temas-chave que são de particular importância para os casais.</t>
   </si>
   <si>
     <t>about_page.how_to_use_descriptions2_text_7</t>
@@ -221,7 +222,7 @@
     <t>That means our approach is deliberate and thoughtful, with every session, challenge, exercise, activity, and routine handpicked and sequenced to resemble a therapy journey.</t>
   </si>
   <si>
-    <t>Isso significa que procedemos com ponderação e cuidado. Cada sessão, Challenge, exercício, atividade e rotina são escolhidos a dedo e coordenados para que se assemelhem a uma jornada terapêutica.</t>
+    <t>Isso significa que procedemos com ponderação e cuidado. Cada sessão, desafio, exercício, atividade e rotina são escolhidos a dedo e coordenados para que se assemelhem a uma jornada terapêutica.</t>
   </si>
   <si>
     <t>about_page.how_to_use_descriptions3_text_1</t>
@@ -866,7 +867,7 @@
     <t>In order to unlock the next stage, you need to fully answer and master the questions and challenges in the current step. This approach (4-Steps to Love) is designed to ensure you don’t move forward prematurely, so you can get the maximum therapeutic effect from each stage.</t>
   </si>
   <si>
-    <t>Para desbloquear a próxima etapa, você precisa responder e dominar completamente as perguntas e Challenges no passo atual. Esta abordagem (4 Passos para o Amor) é projetada para garantir que você não avance prematuramente, para que possa obter o máximo efeito terapêutico de cada estágio.</t>
+    <t>Para desbloquear a próxima etapa, você precisa responder e dominar completamente as perguntas e desafios no passo atual. Esta abordagem (4 Passos para o Amor) é projetada para garantir que você não avance prematuramente, para que possa obter o máximo efeito terapêutico de cada estágio.</t>
   </si>
   <si>
     <t>categories.lockPopupTitle</t>
@@ -887,6 +888,9 @@
     <t>Favourite Challenges</t>
   </si>
   <si>
+    <t>Favourite desafios</t>
+  </si>
+  <si>
     <t>challenge.group_info_title</t>
   </si>
   <si>
@@ -914,7 +918,7 @@
     <t>Hop to the Challenge</t>
   </si>
   <si>
-    <t>Pule para o Challenge</t>
+    <t>Pule para o desafio</t>
   </si>
   <si>
     <t>challenge.hop_to_the_challenges</t>
@@ -926,7 +930,7 @@
     <t>Hop to the Challenges</t>
   </si>
   <si>
-    <t>Pule para os Challenges</t>
+    <t>Pule para os desafios</t>
   </si>
   <si>
     <t>challenge.lockedPopupText</t>
@@ -935,7 +939,7 @@
     <t>Um die nächste Stufe freizuschalten, müssen Sie die Fragen und Herausforderungen des aktuellen Schrittes vollständig beantworten und beherrschen. Dieser Ansatz (4 Schritte zur Liebe) ist so konzipiert, dass Sie nicht vorzeitig weitergehen, damit Sie den maximalen therapeutischen Effekt aus jeder Stufe ziehen können.</t>
   </si>
   <si>
-    <t>Para desbloquear a próxima etapa, você precisa responder e dominar completamente as perguntas e Challenges do passo atual. Esta abordagem (4 Passos para o Amor) é projetada para garantir que você não avance prematuramente, para que possa obter o máximo efeito terapêutico de cada estágio.</t>
+    <t>Para desbloquear a próxima etapa, você precisa responder e dominar completamente as perguntas e desafios do passo atual. Esta abordagem (4 Passos para o Amor) é projetada para garantir que você não avance prematuramente, para que possa obter o máximo efeito terapêutico de cada estágio.</t>
   </si>
   <si>
     <t>challenge.lockedPopupTitle</t>
@@ -947,7 +951,7 @@
     <t>Sorry, these challenges are still locked</t>
   </si>
   <si>
-    <t>Desculpe, estes Challenges ainda estão bloqueados.</t>
+    <t>Desculpe, estes desafios ainda estão bloqueados.</t>
   </si>
   <si>
     <t>challenge.specialChallengeTitle</t>
@@ -992,6 +996,9 @@
     <t>Challenges</t>
   </si>
   <si>
+    <t>desafios</t>
+  </si>
+  <si>
     <t>common._each_session</t>
   </si>
   <si>
@@ -1001,7 +1008,7 @@
     <t>*Each session concludes with a challenge, think of it as a homework assignment or a new tool you can use in the future.</t>
   </si>
   <si>
-    <t>*Cada sessão termina com um Challenge, pense nele como uma tarefa de casa ou uma nova ferramenta que você poderá usar no futuro.</t>
+    <t>*Cada sessão termina com um desafio, pense nele como uma tarefa de casa ou uma nova ferramenta que você poderá usar no futuro.</t>
   </si>
   <si>
     <t>Pre- session check In</t>
@@ -1187,9 +1194,6 @@
     <t>common.arran_kennedy</t>
   </si>
   <si>
-    <t>DE Arran Kennedy,</t>
-  </si>
-  <si>
     <t>Arran Kennedy</t>
   </si>
   <si>
@@ -1217,7 +1221,7 @@
     <t>For 10 years he has worked with adults, teens, children, and couples assisting people to navigate mind, mood, life and relationship challenges both in private practice and large company wellbeing programs. </t>
   </si>
   <si>
-    <t>Trabalha com adultos, adolescentes, crianças e casais há 10 anos, ajudando as pessoas a superar Challenges mentais, de humor, de vida e de relacionamento, tanto em consultório particular quanto em grandes programas corporativos de bem-estar.</t>
+    <t>Trabalha com adultos, adolescentes, crianças e casais há 10 anos, ajudando as pessoas a superar desafios mentais, de humor, de vida e de relacionamento, tanto em consultório particular quanto em grandes programas corporativos de bem-estar.</t>
   </si>
   <si>
     <t>common.arran_text_3</t>
@@ -1271,7 +1275,7 @@
     <t>common.begin_session</t>
   </si>
   <si>
-    <t>Sitzung Beginnen</t>
+    <t>Los geht’s!</t>
   </si>
   <si>
     <t>Begin Session</t>
@@ -1346,6 +1350,9 @@
     <t>Challenge</t>
   </si>
   <si>
+    <t>desafio</t>
+  </si>
+  <si>
     <t>common.challenge_background</t>
   </si>
   <si>
@@ -1355,7 +1362,7 @@
     <t>Challenge background</t>
   </si>
   <si>
-    <t>Contexto do Challenge</t>
+    <t>Contexto do desafio</t>
   </si>
   <si>
     <t>common.challenge_locked</t>
@@ -1367,7 +1374,7 @@
     <t>Challenge locked</t>
   </si>
   <si>
-    <t>Challenge selecionado</t>
+    <t>desafio selecionado</t>
   </si>
   <si>
     <t>common.claim_my_offer</t>
@@ -1508,6 +1515,9 @@
     <t>common.deep</t>
   </si>
   <si>
+    <t>Tief</t>
+  </si>
+  <si>
     <t>Deep</t>
   </si>
   <si>
@@ -1622,7 +1632,7 @@
     <t>Each session concludes with a challenge – think of it as a kind of homework or skills you are developing – that is designed to immediately put what you’ve learned into practice and integrate it into your shared life.</t>
   </si>
   <si>
-    <t>Cada sessão termina com um Challenge - pense nisso como um dever de casa ou uma habilidade que você está aprendendo - ou seja, colocar o que você aprendeu em ação e integrá-lo à sua vida juntos.</t>
+    <t>Cada sessão termina com um desafio - pense nisso como um dever de casa ou uma habilidade que você está aprendendo - ou seja, colocar o que você aprendeu em ação e integrá-lo à sua vida juntos.</t>
   </si>
   <si>
     <t>common.early_bird</t>
@@ -1658,7 +1668,7 @@
     <t>Engage with Challenges:</t>
   </si>
   <si>
-    <t>Você pode enfrentar os Challenges:</t>
+    <t>Você pode enfrentar os desafios:</t>
   </si>
   <si>
     <t>common.enter_category_title</t>
@@ -1727,7 +1737,7 @@
     <t>common.explore_here</t>
   </si>
   <si>
-    <t>DE Hier entdecken</t>
+    <t>mehr</t>
   </si>
   <si>
     <t>Explore here</t>
@@ -1760,6 +1770,9 @@
     <t>Você quer fazer mais?</t>
   </si>
   <si>
+    <t>Short discription Starter Level, Personal Growth</t>
+  </si>
+  <si>
     <t>common.exploring_individual_personalities</t>
   </si>
   <si>
@@ -1841,7 +1854,7 @@
     <t>common.for_the</t>
   </si>
   <si>
-    <t>DE FOR THE</t>
+    <t>mit der</t>
   </si>
   <si>
     <t>For the</t>
@@ -1976,7 +1989,7 @@
     <t>How much do you think this Challenge will help you in future?</t>
   </si>
   <si>
-    <t>O quanto vocês acham que esse Challenge ajudará vocês no futuro?</t>
+    <t>O quanto vocês acham que esse desafio ajudará vocês no futuro?</t>
   </si>
   <si>
     <t>common.how_much_enjoy_level</t>
@@ -2102,9 +2115,6 @@
     <t>common.john_placeholder</t>
   </si>
   <si>
-    <t>DE John,</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -2147,9 +2157,6 @@
     <t>common.lets_do_this</t>
   </si>
   <si>
-    <t>Los geht’s!</t>
-  </si>
-  <si>
     <t>Let’s do this</t>
   </si>
   <si>
@@ -2195,7 +2202,7 @@
     <t>common.levels_and_sessions</t>
   </si>
   <si>
-    <t>DE Levels &amp; Sessions,</t>
+    <t>Level und Sitzungen</t>
   </si>
   <si>
     <t>Levels &amp; Sessions</t>
@@ -2315,7 +2322,7 @@
     <t>Master the upcoming challenge now to successfully complete this session.</t>
   </si>
   <si>
-    <t>Domine o próximo Challenge agora para concluir esta sessão com sucesso.</t>
+    <t>Domine o próximo desafio agora para concluir esta sessão com sucesso.</t>
   </si>
   <si>
     <t>common.mastered_question_part</t>
@@ -2435,7 +2442,7 @@
     <t>Next Stop: Challenges*</t>
   </si>
   <si>
-    <t>Próxima parada: Challenges*</t>
+    <t>Próxima parada: desafios*</t>
   </si>
   <si>
     <t>common.next_stop_challenges_part_1</t>
@@ -2585,7 +2592,7 @@
     <t>common.off</t>
   </si>
   <si>
-    <t>DE off,</t>
+    <t>jetzt</t>
   </si>
   <si>
     <t>off</t>
@@ -2798,9 +2805,6 @@
     <t>common.read_more</t>
   </si>
   <si>
-    <t>mehr</t>
-  </si>
-  <si>
     <t>Read more...</t>
   </si>
   <si>
@@ -2858,7 +2862,7 @@
     <t>common.see_all_session_of</t>
   </si>
   <si>
-    <t>DE See all sessions of,</t>
+    <t>Alle Sitzungen von</t>
   </si>
   <si>
     <t>See all sessions of</t>
@@ -3071,7 +3075,7 @@
     <t>common.subscribe_desc_part_2</t>
   </si>
   <si>
-    <t>DE and enjoy more than 80 weeks of transformative relationship guidance,</t>
+    <t xml:space="preserve">und genieße mehr als 80 Wochen lebensverändernde Beziehungsberatungund genießt mehr als 80 Wochen der definitiv coolsten Beziehungsberatung, die es gibt. Keine Langeweile - echte postitive Veränderung.  </t>
   </si>
   <si>
     <t>and enjoy more than 80 weeks of transformative relationship guidance</t>
@@ -3122,7 +3126,10 @@
     <t>Tell us what we can improve / Do you have an idea for a challenge?</t>
   </si>
   <si>
-    <t>Diga-nos o que podemos melhorar / Vocês têm ideias para um Challenge?</t>
+    <t>Diga-nos o que podemos melhorar / Vocês têm ideias para um desafio?</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
   <si>
     <t>common.the_heart_of_relationship</t>
@@ -3194,7 +3201,7 @@
     <t>Trending challenges</t>
   </si>
   <si>
-    <t>Challenges em alta</t>
+    <t>desafios em alta</t>
   </si>
   <si>
     <t>common.trending_topics</t>
@@ -3218,7 +3225,7 @@
     <t>Utilize the challenges at the end of each session to build your toolkit and apply learned concepts to your relationship.</t>
   </si>
   <si>
-    <t>Utilize os Challenges no final de cada sessão para desenvolver seu kit de ferramentas e aplicar os conceitos aprendidos em seu relacionamento.</t>
+    <t>Utilize os desafios no final de cada sessão para desenvolver seu kit de ferramentas e aplicar os conceitos aprendidos em seu relacionamento.</t>
   </si>
   <si>
     <t>common.venture_beyond_the_journey</t>
@@ -3254,7 +3261,7 @@
     <t>We’ve done the challenge</t>
   </si>
   <si>
-    <t>Você já enfrentou o Challenge</t>
+    <t>Você já enfrentou o desafio</t>
   </si>
   <si>
     <t>common.we_have_your_back</t>
@@ -3278,7 +3285,7 @@
     <t>common.what_can_we_improve</t>
   </si>
   <si>
-    <t>DE Tell us what we can improve,</t>
+    <t>Sag uns was wir besser machen können?</t>
   </si>
   <si>
     <t>Tell us what we can improve</t>
@@ -3404,7 +3411,7 @@
     <t>Your today’s challenge</t>
   </si>
   <si>
-    <t>O Challenge de hoje para você</t>
+    <t>O desafio de hoje para você</t>
   </si>
   <si>
     <t>copilot.step_1_name</t>
@@ -3476,7 +3483,7 @@
     <t>Dive straight into sessions, delve deeper into topics, or take on an extra challenge whenever you feel inspired</t>
   </si>
   <si>
-    <t>Mergulhe diretamente nas sessões, aprofunde-se nos tópicos ou aceite um Challenge extra sempre que você se sentir inspirado</t>
+    <t>Mergulhe diretamente nas sessões, aprofunde-se nos tópicos ou aceite um desafio extra sempre que você se sentir inspirado</t>
   </si>
   <si>
     <t>copilot.step_4_name</t>
@@ -3584,7 +3591,7 @@
     <t>With the syncing feature, both of your accounts share one progress stream, keeping you united in your journey, whether close or apart. It allows you to access challenges, gather information, or to prepare for or reflect on your sessions.</t>
   </si>
   <si>
-    <t>Com o recurso de sincronização, ambas as contas compartilham um fluxo de progresso, mantendo vocês unidos em sua jornada, estejam próximos ou separados. Isso permite que você acesse Challenges, reúna informações, prepare-se para suas sessões ou reflita sobre elas.</t>
+    <t>Com o recurso de sincronização, ambas as contas compartilham um fluxo de progresso, mantendo vocês unidos em sua jornada, estejam próximos ou separados. Isso permite que você acesse desafios, reúna informações, prepare-se para suas sessões ou reflita sobre elas.</t>
   </si>
   <si>
     <t>game_rules.descriptions_5_text_1</t>
@@ -3797,7 +3804,7 @@
     <t>But it’s not just about asking questions, it’s about fostering real change. Each session concludes with one challenge—think of it as homework or a tool—designed to translate insights into action. These challenges, exercises, activities, self-reflection exercises, games and routines are handpicked and sequenced to ensure that as you progress, you’re building on a solid foundation (a toolkit) of skills and understanding. This toolkit grows with each completed challenge, equipping you for future challenges and deepening your bond.</t>
   </si>
   <si>
-    <t>Mas não se trata apenas de fazer perguntas, trata-se de promover mudanças reais. Cada sessão é concluída com um Challenge - pense nele como um dever de casa ou uma ferramenta - criado para traduzir as percepções em ação. Esses Challenges, exercícios, atividades, exercícios de autorreflexão, jogos e rotinas são escolhidos a dedo e sequenciados para garantir que, à medida que você progride, está construindo uma base sólida (um kit de ferramentas) de habilidades e compreensão. Esse kit de ferramentas cresce a cada Challenge concluído, preparando você para Challenges futuros e aprofundando seu vínculo.</t>
+    <t>Mas não se trata apenas de fazer perguntas, trata-se de promover mudanças reais. Cada sessão é concluída com um desafio - pense nele como um dever de casa ou uma ferramenta - criado para traduzir as percepções em ação. Esses desafios, exercícios, atividades, exercícios de autorreflexão, jogos e rotinas são escolhidos a dedo e sequenciados para garantir que, à medida que você progride, está construindo uma base sólida (um kit de ferramentas) de habilidades e compreensão. Esse kit de ferramentas cresce a cada desafio concluído, preparando você para desafios futuros e aprofundando seu vínculo.</t>
   </si>
   <si>
     <t>how_to_use.descriptions3_text_1</t>
@@ -3809,7 +3816,7 @@
     <t>You will find some of the questions and challenges easy and others more difficult. But that's why you're here—to learn and challenge yourself to become better together. The questions are aimed at facilitating a conversation to get to know each other better and introduce topics that you might not talk about normally</t>
   </si>
   <si>
-    <t>Você achará algumas das perguntas e Challenges fáceis e outros mais difíceis. Mas é por isso que vocês estão aqui - para aprender e se desafiar a se tornarem melhores juntos. As perguntas têm o objetivo de facilitar uma conversa para que vocês se conheçam melhor e apresentem tópicos sobre os quais talvez não conversem normalmente</t>
+    <t>Você achará algumas das perguntas e desafios fáceis e outros mais difíceis. Mas é por isso que vocês estão aqui - para aprender e se desafiar a se tornarem melhores juntos. As perguntas têm o objetivo de facilitar uma conversa para que vocês se conheçam melhor e apresentem tópicos sobre os quais talvez não conversem normalmente</t>
   </si>
   <si>
     <t>how_to_use.descriptions3_text_2</t>
@@ -3821,7 +3828,7 @@
     <t>The challenges are aimed at giving you an opportunity to go outside your comfort zone, deal with difficult issues, come up with solutions and learn key relationship skills.</t>
   </si>
   <si>
-    <t>Os Challenges têm como objetivo dar a você a oportunidade de sair da sua zona de conforto, lidar com questões difíceis, encontrar soluções e aprender as principais habilidades de relacionamento.</t>
+    <t>Os desafios têm como objetivo dar a você a oportunidade de sair da sua zona de conforto, lidar com questões difíceis, encontrar soluções e aprender as principais habilidades de relacionamento.</t>
   </si>
   <si>
     <t>how_to_use.descriptions3_text_3</t>
@@ -3845,7 +3852,7 @@
     <t>Beyond 'The Journey,' LoveWorkz offers the freedom to explore sessions, questions, and challenges independently. This mode enables you to focus on specific areas of interest at your own pace, perfect for supplementing the structured journey or diving deeper into particular topics.</t>
   </si>
   <si>
-    <t>Além da "Jornada", o LoveWorkz oferece a você a liberdade de explorar sessões, perguntas e Challenges de forma independente. Esse modo permite que você se concentre em áreas específicas de interesse no seu próprio ritmo, perfeito para complementar a jornada estruturada ou se aprofundar em tópicos específicos.</t>
+    <t>Além da "Jornada", o LoveWorkz oferece a você a liberdade de explorar sessões, perguntas e desafios de forma independente. Esse modo permite que você se concentre em áreas específicas de interesse no seu próprio ritmo, perfeito para complementar a jornada estruturada ou se aprofundar em tópicos específicos.</t>
   </si>
   <si>
     <t>how_to_use.descriptions5_text_1</t>
@@ -3872,7 +3879,7 @@
     <t>Building Your Toolkit with Challenges</t>
   </si>
   <si>
-    <t>Construindo seu kit de ferramentas com Challenges</t>
+    <t>Construindo seu kit de ferramentas com desafios</t>
   </si>
   <si>
     <t>how_to_use.title_maintaining:</t>
@@ -3980,7 +3987,7 @@
     <t xml:space="preserve"> backed, filled with evidence-based insights, tips and exercises, these books will help you improve communication, increase mutual understanding, deepen emotional bonds, and navigate through your relationship challenges.</t>
   </si>
   <si>
-    <t>Reforçados, repletos de insights, dicas e exercícios baseados em evidências, esses livros ajudarão você a melhorar a comunicação, aumentar a compreensão mútua, aprofundar os vínculos emocionais e superar os Challenges do seu relacionamento.</t>
+    <t>Reforçados, repletos de insights, dicas e exercícios baseados em evidências, esses livros ajudarão você a melhorar a comunicação, aumentar a compreensão mútua, aprofundar os vínculos emocionais e superar os desafios do seu relacionamento.</t>
   </si>
   <si>
     <t>information_block.literature_text_3</t>
@@ -5003,7 +5010,7 @@
     <t>You have unlocked new challenges and questions. Check them out right now!</t>
   </si>
   <si>
-    <t>Você desbloqueou novos Challenges e perguntas. Confira agora mesmo!</t>
+    <t>Você desbloqueou novos desafios e perguntas. Confira agora mesmo!</t>
   </si>
   <si>
     <t>questions.congrats_deep_description_1</t>
@@ -5045,7 +5052,7 @@
     <t>Intimate.You have successfully unlocked new challenges and questions. Check them out right now.</t>
   </si>
   <si>
-    <t>Íntimo. Você desbloqueou com sucesso novos Challenges e perguntas. Confira agora mesmo!</t>
+    <t>Íntimo. Você desbloqueou com sucesso novos desafios e perguntas. Confira agora mesmo!</t>
   </si>
   <si>
     <t>questions.fantastic_work</t>
@@ -5093,7 +5100,7 @@
     <t>Move to challenges</t>
   </si>
   <si>
-    <t>Mova-se para Challenges</t>
+    <t>Mova-se para desafios</t>
   </si>
   <si>
     <t>questions.questions</t>
@@ -5762,7 +5769,7 @@
     <t>Get access to all categories and challenges</t>
   </si>
   <si>
-    <t>Tenha acesso a todas as categorias e Challenges</t>
+    <t>Tenha acesso a todas as categorias e desafios</t>
   </si>
   <si>
     <t>shop.monthly_description</t>
@@ -5774,7 +5781,7 @@
     <t>access to all categories and challenges and no ads</t>
   </si>
   <si>
-    <t>acesso a todas as categorias e Challenges, sem anúncios</t>
+    <t>acesso a todas as categorias e desafios, sem anúncios</t>
   </si>
   <si>
     <t>shop.quarterly_description</t>
@@ -5786,7 +5793,7 @@
     <t>Access to all categories and challenges and no ads</t>
   </si>
   <si>
-    <t>Acesso a todas as categorias e Challenges, sem anúncios</t>
+    <t>Acesso a todas as categorias e desafios, sem anúncios</t>
   </si>
   <si>
     <t>shop.title</t>
@@ -6033,7 +6040,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6043,20 +6050,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -6079,6 +6083,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7384,6594 +7392,6598 @@
       <c r="D73" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>288</v>
+      <c r="E73" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C107" s="1" t="s">
         <v>417</v>
       </c>
+      <c r="C107" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="1"/>
+      <c r="A148" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="B148" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>583</v>
+        <v>586</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>607</v>
+        <v>610</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>709</v>
+        <v>418</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>797</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>851</v>
+        <v>852</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>901</v>
+        <v>902</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>903</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>926</v>
+        <v>572</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C238" s="5" t="s">
         <v>930</v>
       </c>
+      <c r="C238" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="D238" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C242" s="3" t="s">
         <v>946</v>
       </c>
+      <c r="C242" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="D242" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="C254" s="5" t="s">
         <v>994</v>
       </c>
+      <c r="C254" s="3" t="s">
+        <v>995</v>
+      </c>
       <c r="D254" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C255" s="5" t="s">
         <v>998</v>
       </c>
+      <c r="C255" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="D255" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C256" s="7" t="s">
         <v>1002</v>
       </c>
+      <c r="C256" s="5" t="s">
+        <v>1003</v>
+      </c>
       <c r="D256" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1006</v>
+        <v>602</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C260" s="3" t="s">
         <v>1017</v>
       </c>
+      <c r="C260" s="2" t="s">
+        <v>1018</v>
+      </c>
       <c r="D260" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="A265" s="2"/>
+      <c r="A265" s="6" t="s">
+        <v>1036</v>
+      </c>
       <c r="B265" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1038</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1088</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C284" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>1130</v>
+        <v>1131</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1132</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1140</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>1142</v>
+        <v>1143</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1144</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>1154</v>
+        <v>1155</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>1156</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>1158</v>
+        <v>1159</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>1160</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="328" ht="12.75" customHeight="1">
-      <c r="A328" s="8" t="s">
-        <v>1280</v>
+      <c r="A328" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C328" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="329" ht="12.75" customHeight="1">
+      <c r="A329" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="329" ht="12.75" customHeight="1">
-      <c r="A329" s="8" t="s">
-        <v>1280</v>
-      </c>
       <c r="B329" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1288</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="368" ht="12.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="369" ht="12.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="370" ht="12.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="372" ht="12.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D396" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>1536</v>
-      </c>
       <c r="E396" s="1" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="424" ht="12.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="427" ht="12.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="429" ht="12.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="434" ht="12.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C436" s="9" t="s">
-        <v>1689</v>
+        <v>1690</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>1691</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="438" ht="12.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C438" s="10" t="s">
-        <v>1697</v>
+        <v>1698</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>1699</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="439" ht="12.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="440" ht="12.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="444" ht="12.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="446" ht="12.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="450" ht="12.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="451" ht="12.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="452" ht="12.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="460" ht="12.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="461" ht="12.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="462" ht="12.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="465" ht="12.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="467" ht="12.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="468" ht="12.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="469" ht="12.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="470" ht="12.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="471" ht="12.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="472" ht="12.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="473" ht="12.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="474" ht="12.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="475" ht="12.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="476" ht="12.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="477" ht="12.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="478" ht="12.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="479" ht="12.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="480" ht="12.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="481" ht="12.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="482" ht="12.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="483" ht="12.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="484" ht="12.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="485" ht="12.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="486" ht="12.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="487" ht="12.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="488" ht="12.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="489" ht="12.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="490" ht="12.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="491" ht="12.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="492" ht="12.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="493" ht="12.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="494" ht="12.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="495" ht="12.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="496" ht="12.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="497" ht="12.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="498" ht="12.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="499" ht="12.75" customHeight="1">
       <c r="A499" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="500" ht="12.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="501" ht="12.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="502" ht="12.75" customHeight="1">
       <c r="A502" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>270</v>
@@ -13979,215 +13991,215 @@
     </row>
     <row r="503" ht="12.75" customHeight="1">
       <c r="A503" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="504" ht="12.75" customHeight="1">
       <c r="A504" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="505" ht="12.75" customHeight="1">
       <c r="A505" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="506" ht="12.75" customHeight="1">
       <c r="A506" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="507" ht="12.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="508" ht="12.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="509" ht="12.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="510" ht="12.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="511" ht="12.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="512" ht="12.75" customHeight="1">
-      <c r="B512" s="11" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C512" s="11" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D512" s="11" t="s">
+      <c r="B512" s="10" t="s">
         <v>1965</v>
       </c>
-      <c r="E512" s="11" t="s">
+      <c r="C512" s="10" t="s">
         <v>1966</v>
       </c>
+      <c r="D512" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E512" s="10" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="513" ht="12.75" customHeight="1">
-      <c r="B513" s="11" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C513" s="11" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D513" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="E513" s="11" t="s">
+      <c r="B513" s="10" t="s">
         <v>1969</v>
       </c>
+      <c r="C513" s="10" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="514" ht="12.75" customHeight="1">
-      <c r="B514" s="11" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C514" s="11" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D514" s="11" t="s">
+      <c r="B514" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="E514" s="11" t="s">
+      <c r="C514" s="10" t="s">
         <v>1973</v>
       </c>
+      <c r="D514" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E514" s="10" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="B515" s="11" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C515" s="11" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D515" s="11" t="s">
+      <c r="B515" s="10" t="s">
         <v>1976</v>
       </c>
-      <c r="E515" s="11" t="s">
+      <c r="C515" s="10" t="s">
         <v>1977</v>
       </c>
+      <c r="D515" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="B516" s="11" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C516" s="11" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D516" s="11" t="s">
+      <c r="B516" s="10" t="s">
         <v>1980</v>
       </c>
-      <c r="E516" s="11" t="s">
+      <c r="C516" s="10" t="s">
         <v>1981</v>
+      </c>
+      <c r="D516" s="10" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E516" s="10" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="517" ht="12.75" customHeight="1"/>
@@ -14689,4 +14701,18 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/shared/consts/translations.xlsx
+++ b/src/shared/consts/translations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="2042">
   <si>
     <t>information_block.literature_text_3</t>
   </si>
@@ -5946,6 +5946,204 @@
   </si>
   <si>
     <t>Within each level, the journey is segmented into four key quadrants - Personal Growth, Friendship, Communication &amp; Conflict, and Dreams. These quadrants are the pillars that support a healthy, thriving relationship, addressing the essential areas for development and understanding.</t>
+  </si>
+  <si>
+    <t>common._each_session</t>
+  </si>
+  <si>
+    <t>*Jede Sitzung schliesst mit einer Challenge ab, betrachtet Sie als eine Art Hausaufgabe oder als ein neues Werkzeug, dass ihr in Zukunft benutzen könnt.</t>
+  </si>
+  <si>
+    <t>*Each session concludes with a challenge, think of it as a homework assignment or a new tool you can use in the future.</t>
+  </si>
+  <si>
+    <t>*Cada sessão termina com um desafio, pense nele como uma tarefa de casa ou uma nova ferramenta que você poderá usar no futuro.</t>
+  </si>
+  <si>
+    <t>sessions.questions_in_sessions_are_on</t>
+  </si>
+  <si>
+    <t>Der Fokus der Fragen in dieser Sitzung liegt auf</t>
+  </si>
+  <si>
+    <t>The focus of the questions in this sessions are on</t>
+  </si>
+  <si>
+    <t>O foco das questões nesta sessão está em</t>
+  </si>
+  <si>
+    <t>sessions.a_handpicked_challenge_is_part_1</t>
+  </si>
+  <si>
+    <t>Eine Auswahl an ausgewählten Core - Challenges der Kategorie Übung</t>
+  </si>
+  <si>
+    <t>A set of handpicked Core - Challenges of the category Exercise</t>
+  </si>
+  <si>
+    <t>Um conjunto de Desafios Core cuidadosamente selecionados da categoria Exercício</t>
+  </si>
+  <si>
+    <t>sessions.a_handpicked_challenge_is_part_2</t>
+  </si>
+  <si>
+    <t>rundet das Bild ab.</t>
+  </si>
+  <si>
+    <t>is rounding up the picture.</t>
+  </si>
+  <si>
+    <t>está completando o quadro.</t>
+  </si>
+  <si>
+    <t>sessions.picked_special_challenge_part_1</t>
+  </si>
+  <si>
+    <t>Die besonderen Herausforderungen in dieser Session:</t>
+  </si>
+  <si>
+    <t>The Special Challenges in this session:</t>
+  </si>
+  <si>
+    <t>Os desafios especiais nesta sessão:</t>
+  </si>
+  <si>
+    <t>therapists.programs_offered_by</t>
+  </si>
+  <si>
+    <t>Programme angeboten von</t>
+  </si>
+  <si>
+    <t>Programs offered by</t>
+  </si>
+  <si>
+    <t>Programas oferecidos por</t>
+  </si>
+  <si>
+    <t>therapists.contacts</t>
+  </si>
+  <si>
+    <t>Kontakte</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Contatos</t>
+  </si>
+  <si>
+    <t>therapist.contact_linkedin</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>therapist.contact_phone</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>therapist.contact_website</t>
+  </si>
+  <si>
+    <t>Webseite</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>therapist.contact_email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>therapist.contact_instagram</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>therapist.contact_youtube</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>languages.en</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>languages.de</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>languages.pt</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>languages.es</t>
+  </si>
+  <si>
+    <t>Spanisch</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Espanhol</t>
+  </si>
+  <si>
+    <t>languages.fr</t>
+  </si>
+  <si>
+    <t>Französisch</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Francês</t>
+  </si>
+  <si>
+    <t>languages.sv</t>
+  </si>
+  <si>
+    <t>Schwedisch</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Sueco</t>
+  </si>
+  <si>
+    <t>languages.gr</t>
+  </si>
+  <si>
+    <t>Griechisch</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Grego</t>
   </si>
 </sst>
 </file>
@@ -6028,7 +6226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6068,6 +6266,7 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -14182,31 +14381,286 @@
       </c>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="A516" s="1"/>
-      <c r="B516" s="1"/>
-      <c r="C516" s="2"/>
-      <c r="D516" s="1"/>
-      <c r="E516" s="2"/>
-    </row>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
+      <c r="A516" s="2"/>
+      <c r="B516" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="517" ht="12.75" customHeight="1">
+      <c r="B517" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D517" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E517" s="4" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="518" ht="12.75" customHeight="1">
+      <c r="B518" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D518" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E518" s="4" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="519" ht="12.75" customHeight="1">
+      <c r="B519" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E519" s="4" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="520" ht="12.75" customHeight="1">
+      <c r="B520" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E520" s="4" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="521" ht="12.75" customHeight="1">
+      <c r="B521" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E521" s="4" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="522" ht="12.75" customHeight="1">
+      <c r="B522" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D522" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E522" s="4" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="523" ht="12.75" customHeight="1">
+      <c r="B523" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E523" s="4" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="524" ht="12.75" customHeight="1">
+      <c r="B524" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D524" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E524" s="4" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="525" ht="12.75" customHeight="1">
+      <c r="B525" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E525" s="4" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="526" ht="12.75" customHeight="1">
+      <c r="B526" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="527" ht="12.75" customHeight="1">
+      <c r="B527" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="528" ht="12.75" customHeight="1">
+      <c r="B528" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E528" s="4" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="529" ht="12.75" customHeight="1">
+      <c r="B529" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E529" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="530" ht="12.75" customHeight="1">
+      <c r="B530" s="13" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E530" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="531" ht="12.75" customHeight="1">
+      <c r="B531" s="13" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="532" ht="12.75" customHeight="1">
+      <c r="B532" s="13" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E532" s="4" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="533" ht="12.75" customHeight="1">
+      <c r="B533" s="13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E533" s="4" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="534" ht="12.75" customHeight="1">
+      <c r="B534" s="13" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="535" ht="12.75" customHeight="1">
+      <c r="B535" s="13" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E535" s="4" t="s">
+        <v>2041</v>
+      </c>
+    </row>
     <row r="536" ht="12.75" customHeight="1"/>
     <row r="537" ht="12.75" customHeight="1"/>
     <row r="538" ht="12.75" customHeight="1"/>
